--- a/separation_new_new.xlsx
+++ b/separation_new_new.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barry\Documents\GitHub\Replication-file-Robust-Text-Analysis\Replication-file-Robust-Text-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB1668C-2C5F-48D9-86ED-8440CDEB2AE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED744E9-0D7D-4443-964F-210A17C44ED2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>FOMC1_1</t>
   </si>
@@ -66,12 +67,27 @@
   <si>
     <t>FOMC2_HMP</t>
   </si>
+  <si>
+    <t>FOMC1_start</t>
+  </si>
+  <si>
+    <t>FOMC1_end</t>
+  </si>
+  <si>
+    <t>FOMC2_start</t>
+  </si>
+  <si>
+    <t>FOMC2_end</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +106,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -186,6 +209,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q149"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="L150" sqref="L150"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +563,7 @@
     <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -586,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>198708</v>
       </c>
@@ -632,8 +656,20 @@
       <c r="Q2">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S2" s="4">
+        <v>58</v>
+      </c>
+      <c r="T2" s="8">
+        <v>150</v>
+      </c>
+      <c r="U2" s="10">
+        <v>151</v>
+      </c>
+      <c r="V2" s="14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>198709</v>
       </c>
@@ -667,7 +703,7 @@
       <c r="K3" s="13">
         <v>20</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="14">
         <v>299</v>
       </c>
       <c r="M3" s="14">
@@ -679,8 +715,20 @@
       <c r="Q3">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S3" s="4">
+        <v>48</v>
+      </c>
+      <c r="T3" s="8">
+        <v>180</v>
+      </c>
+      <c r="U3" s="10">
+        <v>181</v>
+      </c>
+      <c r="V3" s="14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>198711</v>
       </c>
@@ -726,8 +774,20 @@
       <c r="Q4">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S4" s="4">
+        <v>83</v>
+      </c>
+      <c r="T4" s="8">
+        <v>165</v>
+      </c>
+      <c r="U4" s="10">
+        <v>166</v>
+      </c>
+      <c r="V4" s="14">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>198712</v>
       </c>
@@ -773,8 +833,20 @@
       <c r="Q5">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S5" s="4">
+        <v>504</v>
+      </c>
+      <c r="T5" s="8">
+        <v>643</v>
+      </c>
+      <c r="U5" s="10">
+        <v>644</v>
+      </c>
+      <c r="V5" s="14">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>198802</v>
       </c>
@@ -820,8 +892,20 @@
       <c r="Q6">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S6" s="15">
+        <v>80</v>
+      </c>
+      <c r="T6" s="16">
+        <v>140</v>
+      </c>
+      <c r="U6" s="10">
+        <v>315</v>
+      </c>
+      <c r="V6" s="14">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>198803</v>
       </c>
@@ -855,7 +939,7 @@
       <c r="K7" s="14">
         <v>395</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="14">
         <v>395</v>
       </c>
       <c r="M7" s="13">
@@ -867,8 +951,20 @@
       <c r="Q7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S7" s="4">
+        <v>316</v>
+      </c>
+      <c r="T7" s="8">
+        <v>372</v>
+      </c>
+      <c r="U7" s="10">
+        <v>373</v>
+      </c>
+      <c r="V7" s="14">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>198806</v>
       </c>
@@ -914,8 +1010,20 @@
       <c r="Q8">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S8" s="4">
+        <v>126</v>
+      </c>
+      <c r="T8" s="8">
+        <v>207</v>
+      </c>
+      <c r="U8" s="10">
+        <v>244</v>
+      </c>
+      <c r="V8" s="14">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>198808</v>
       </c>
@@ -961,8 +1069,20 @@
       <c r="Q9">
         <v>183</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S9" s="4">
+        <v>70</v>
+      </c>
+      <c r="T9" s="8">
+        <v>206</v>
+      </c>
+      <c r="U9" s="10">
+        <v>207</v>
+      </c>
+      <c r="V9" s="14">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>198809</v>
       </c>
@@ -1008,8 +1128,20 @@
       <c r="Q10">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S10" s="4">
+        <v>14</v>
+      </c>
+      <c r="T10" s="8">
+        <v>141</v>
+      </c>
+      <c r="U10" s="10">
+        <v>143</v>
+      </c>
+      <c r="V10" s="14">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>198811</v>
       </c>
@@ -1055,8 +1187,20 @@
       <c r="Q11">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S11" s="4">
+        <v>227</v>
+      </c>
+      <c r="T11" s="8">
+        <v>345</v>
+      </c>
+      <c r="U11" s="10">
+        <v>346</v>
+      </c>
+      <c r="V11" s="14">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>198812</v>
       </c>
@@ -1102,8 +1246,20 @@
       <c r="Q12">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S12" s="4">
+        <v>151</v>
+      </c>
+      <c r="T12" s="8">
+        <v>397</v>
+      </c>
+      <c r="U12" s="10">
+        <v>398</v>
+      </c>
+      <c r="V12" s="14">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>198902</v>
       </c>
@@ -1149,8 +1305,20 @@
       <c r="Q13">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S13" s="4">
+        <v>16</v>
+      </c>
+      <c r="T13" s="8">
+        <v>169</v>
+      </c>
+      <c r="U13" s="10">
+        <v>408</v>
+      </c>
+      <c r="V13" s="14">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>198903</v>
       </c>
@@ -1196,8 +1364,20 @@
       <c r="Q14">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S14" s="4">
+        <v>150</v>
+      </c>
+      <c r="T14" s="8">
+        <v>290</v>
+      </c>
+      <c r="U14" s="10">
+        <v>292</v>
+      </c>
+      <c r="V14" s="14">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>198905</v>
       </c>
@@ -1243,8 +1423,20 @@
       <c r="Q15">
         <v>234</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S15" s="4">
+        <v>131</v>
+      </c>
+      <c r="T15" s="8">
+        <v>238</v>
+      </c>
+      <c r="U15" s="10">
+        <v>239</v>
+      </c>
+      <c r="V15" s="14">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>198907</v>
       </c>
@@ -1290,8 +1482,20 @@
       <c r="Q16">
         <v>192</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S16" s="4">
+        <v>103</v>
+      </c>
+      <c r="T16" s="8">
+        <v>245</v>
+      </c>
+      <c r="U16" s="10">
+        <v>332</v>
+      </c>
+      <c r="V16" s="14">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>198908</v>
       </c>
@@ -1337,8 +1541,20 @@
       <c r="Q17">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S17" s="4">
+        <v>101</v>
+      </c>
+      <c r="T17" s="8">
+        <v>338</v>
+      </c>
+      <c r="U17" s="10">
+        <v>339</v>
+      </c>
+      <c r="V17" s="14">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>198910</v>
       </c>
@@ -1384,8 +1600,20 @@
       <c r="Q18">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S18" s="4">
+        <v>235</v>
+      </c>
+      <c r="T18" s="8">
+        <v>326</v>
+      </c>
+      <c r="U18" s="10">
+        <v>327</v>
+      </c>
+      <c r="V18" s="14">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>198911</v>
       </c>
@@ -1431,8 +1659,20 @@
       <c r="Q19">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S19" s="4">
+        <v>73</v>
+      </c>
+      <c r="T19" s="8">
+        <v>191</v>
+      </c>
+      <c r="U19" s="10">
+        <v>193</v>
+      </c>
+      <c r="V19" s="14">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>198912</v>
       </c>
@@ -1478,8 +1718,20 @@
       <c r="Q20">
         <v>199</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S20" s="4">
+        <v>516</v>
+      </c>
+      <c r="T20" s="8">
+        <v>660</v>
+      </c>
+      <c r="U20" s="10">
+        <v>662</v>
+      </c>
+      <c r="V20" s="14">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>199002</v>
       </c>
@@ -1525,8 +1777,20 @@
       <c r="Q21">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S21" s="15">
+        <v>58</v>
+      </c>
+      <c r="T21" s="16">
+        <v>111</v>
+      </c>
+      <c r="U21" s="10">
+        <v>305</v>
+      </c>
+      <c r="V21" s="14">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>199003</v>
       </c>
@@ -1572,8 +1836,20 @@
       <c r="Q22">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S22" s="4">
+        <v>96</v>
+      </c>
+      <c r="T22" s="8">
+        <v>253</v>
+      </c>
+      <c r="U22" s="10">
+        <v>255</v>
+      </c>
+      <c r="V22" s="14">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>199005</v>
       </c>
@@ -1619,8 +1895,20 @@
       <c r="Q23">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S23" s="4">
+        <v>19</v>
+      </c>
+      <c r="T23" s="8">
+        <v>124</v>
+      </c>
+      <c r="U23" s="10">
+        <v>126</v>
+      </c>
+      <c r="V23" s="14">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>199007</v>
       </c>
@@ -1666,8 +1954,20 @@
       <c r="Q24">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S24" s="4">
+        <v>17</v>
+      </c>
+      <c r="T24" s="8">
+        <v>142</v>
+      </c>
+      <c r="U24" s="10">
+        <v>284</v>
+      </c>
+      <c r="V24" s="14">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>199008</v>
       </c>
@@ -1713,8 +2013,20 @@
       <c r="Q25">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S25" s="4">
+        <v>29</v>
+      </c>
+      <c r="T25" s="8">
+        <v>193</v>
+      </c>
+      <c r="U25" s="10">
+        <v>194</v>
+      </c>
+      <c r="V25" s="14">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>199010</v>
       </c>
@@ -1760,8 +2072,20 @@
       <c r="Q26">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S26" s="4">
+        <v>98</v>
+      </c>
+      <c r="T26" s="8">
+        <v>213</v>
+      </c>
+      <c r="U26" s="10">
+        <v>214</v>
+      </c>
+      <c r="V26" s="14">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>199011</v>
       </c>
@@ -1807,8 +2131,20 @@
       <c r="Q27">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S27" s="4">
+        <v>188</v>
+      </c>
+      <c r="T27" s="8">
+        <v>299</v>
+      </c>
+      <c r="U27" s="10">
+        <v>300</v>
+      </c>
+      <c r="V27" s="14">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>199012</v>
       </c>
@@ -1854,8 +2190,20 @@
       <c r="Q28">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S28" s="4">
+        <v>68</v>
+      </c>
+      <c r="T28" s="8">
+        <v>131</v>
+      </c>
+      <c r="U28" s="10">
+        <v>133</v>
+      </c>
+      <c r="V28" s="14">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>199102</v>
       </c>
@@ -1901,8 +2249,20 @@
       <c r="Q29">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S29" s="4">
+        <v>180</v>
+      </c>
+      <c r="T29" s="8">
+        <v>294</v>
+      </c>
+      <c r="U29" s="10">
+        <v>357</v>
+      </c>
+      <c r="V29" s="14">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>199103</v>
       </c>
@@ -1948,8 +2308,20 @@
       <c r="Q30">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S30" s="4">
+        <v>202</v>
+      </c>
+      <c r="T30" s="8">
+        <v>243</v>
+      </c>
+      <c r="U30" s="10">
+        <v>244</v>
+      </c>
+      <c r="V30" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>199105</v>
       </c>
@@ -1995,8 +2367,20 @@
       <c r="Q31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S31" s="4">
+        <v>39</v>
+      </c>
+      <c r="T31" s="8">
+        <v>96</v>
+      </c>
+      <c r="U31" s="10">
+        <v>97</v>
+      </c>
+      <c r="V31" s="14">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>199107</v>
       </c>
@@ -2042,8 +2426,20 @@
       <c r="Q32">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S32" s="4">
+        <v>51</v>
+      </c>
+      <c r="T32" s="8">
+        <v>197</v>
+      </c>
+      <c r="U32" s="10">
+        <v>302</v>
+      </c>
+      <c r="V32" s="14">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>199108</v>
       </c>
@@ -2089,8 +2485,20 @@
       <c r="Q33">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S33" s="4">
+        <v>131</v>
+      </c>
+      <c r="T33" s="8">
+        <v>198</v>
+      </c>
+      <c r="U33" s="10">
+        <v>199</v>
+      </c>
+      <c r="V33" s="14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>199110</v>
       </c>
@@ -2136,8 +2544,20 @@
       <c r="Q34">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S34" s="4">
+        <v>42</v>
+      </c>
+      <c r="T34" s="8">
+        <v>138</v>
+      </c>
+      <c r="U34" s="10">
+        <v>140</v>
+      </c>
+      <c r="V34" s="14">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>199111</v>
       </c>
@@ -2183,8 +2603,20 @@
       <c r="Q35">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S35" s="4">
+        <v>20</v>
+      </c>
+      <c r="T35" s="8">
+        <v>109</v>
+      </c>
+      <c r="U35" s="10">
+        <v>109</v>
+      </c>
+      <c r="V35" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>199112</v>
       </c>
@@ -2230,8 +2662,20 @@
       <c r="Q36">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S36" s="4">
+        <v>59</v>
+      </c>
+      <c r="T36" s="8">
+        <v>124</v>
+      </c>
+      <c r="U36" s="10">
+        <v>125</v>
+      </c>
+      <c r="V36" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>199202</v>
       </c>
@@ -2277,8 +2721,20 @@
       <c r="Q37">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S37" s="4">
+        <v>71</v>
+      </c>
+      <c r="T37" s="8">
+        <v>151</v>
+      </c>
+      <c r="U37" s="10">
+        <v>310</v>
+      </c>
+      <c r="V37" s="14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>199203</v>
       </c>
@@ -2324,8 +2780,20 @@
       <c r="Q38">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S38" s="4">
+        <v>78</v>
+      </c>
+      <c r="T38" s="8">
+        <v>146</v>
+      </c>
+      <c r="U38" s="10">
+        <v>147</v>
+      </c>
+      <c r="V38" s="14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>199205</v>
       </c>
@@ -2371,8 +2839,20 @@
       <c r="Q39">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S39" s="4">
+        <v>37</v>
+      </c>
+      <c r="T39" s="8">
+        <v>163</v>
+      </c>
+      <c r="U39" s="10">
+        <v>136</v>
+      </c>
+      <c r="V39" s="14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>199207</v>
       </c>
@@ -2418,8 +2898,20 @@
       <c r="Q40">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S40" s="19">
+        <v>48</v>
+      </c>
+      <c r="T40" s="8">
+        <v>156</v>
+      </c>
+      <c r="U40" s="10">
+        <v>367</v>
+      </c>
+      <c r="V40" s="14">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>199208</v>
       </c>
@@ -2465,8 +2957,20 @@
       <c r="Q41">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S41" s="4">
+        <v>42</v>
+      </c>
+      <c r="T41" s="8">
+        <v>133</v>
+      </c>
+      <c r="U41" s="10">
+        <v>134</v>
+      </c>
+      <c r="V41" s="14">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>199210</v>
       </c>
@@ -2512,8 +3016,20 @@
       <c r="Q42">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S42" s="4">
+        <v>81</v>
+      </c>
+      <c r="T42" s="8">
+        <v>229</v>
+      </c>
+      <c r="U42" s="10">
+        <v>86</v>
+      </c>
+      <c r="V42" s="14">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>199211</v>
       </c>
@@ -2559,8 +3075,20 @@
       <c r="Q43">
         <v>189</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S43" s="4">
+        <v>29</v>
+      </c>
+      <c r="T43" s="8">
+        <v>88</v>
+      </c>
+      <c r="U43" s="10">
+        <v>89</v>
+      </c>
+      <c r="V43" s="14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>199212</v>
       </c>
@@ -2606,8 +3134,20 @@
       <c r="Q44">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S44" s="4">
+        <v>19</v>
+      </c>
+      <c r="T44" s="8">
+        <v>129</v>
+      </c>
+      <c r="U44" s="10">
+        <v>130</v>
+      </c>
+      <c r="V44" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>199302</v>
       </c>
@@ -2653,8 +3193,20 @@
       <c r="Q45">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S45" s="4">
+        <v>42</v>
+      </c>
+      <c r="T45" s="8">
+        <v>164</v>
+      </c>
+      <c r="U45" s="10">
+        <v>300</v>
+      </c>
+      <c r="V45" s="14">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>199303</v>
       </c>
@@ -2700,8 +3252,20 @@
       <c r="Q46">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S46" s="4">
+        <v>70</v>
+      </c>
+      <c r="T46" s="8">
+        <v>136</v>
+      </c>
+      <c r="U46" s="10">
+        <v>137</v>
+      </c>
+      <c r="V46" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>199305</v>
       </c>
@@ -2747,8 +3311,20 @@
       <c r="Q47">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S47" s="4">
+        <v>41</v>
+      </c>
+      <c r="T47" s="8">
+        <v>117</v>
+      </c>
+      <c r="U47" s="10">
+        <v>118</v>
+      </c>
+      <c r="V47" s="14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>199307</v>
       </c>
@@ -2794,8 +3370,20 @@
       <c r="Q48">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S48" s="4">
+        <v>113</v>
+      </c>
+      <c r="T48" s="8">
+        <v>318</v>
+      </c>
+      <c r="U48" s="10">
+        <v>497</v>
+      </c>
+      <c r="V48" s="14">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>199308</v>
       </c>
@@ -2841,8 +3429,20 @@
       <c r="Q49">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S49" s="4">
+        <v>37</v>
+      </c>
+      <c r="T49" s="8">
+        <v>121</v>
+      </c>
+      <c r="U49" s="10">
+        <v>123</v>
+      </c>
+      <c r="V49" s="14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>199309</v>
       </c>
@@ -2888,8 +3488,20 @@
       <c r="Q50">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S50" s="4">
+        <v>16</v>
+      </c>
+      <c r="T50" s="8">
+        <v>137</v>
+      </c>
+      <c r="U50" s="10">
+        <v>138</v>
+      </c>
+      <c r="V50" s="14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>199311</v>
       </c>
@@ -2935,8 +3547,20 @@
       <c r="Q51">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S51" s="4">
+        <v>757</v>
+      </c>
+      <c r="T51" s="8">
+        <v>819</v>
+      </c>
+      <c r="U51" s="10">
+        <v>820</v>
+      </c>
+      <c r="V51" s="14">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>199312</v>
       </c>
@@ -2982,8 +3606,20 @@
       <c r="Q52">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S52" s="4">
+        <v>35</v>
+      </c>
+      <c r="T52" s="8">
+        <v>118</v>
+      </c>
+      <c r="U52" s="10">
+        <v>120</v>
+      </c>
+      <c r="V52" s="14">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>199402</v>
       </c>
@@ -3029,8 +3665,20 @@
       <c r="Q53">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S53" s="4">
+        <v>60</v>
+      </c>
+      <c r="T53" s="8">
+        <v>368</v>
+      </c>
+      <c r="U53" s="10">
+        <v>370</v>
+      </c>
+      <c r="V53" s="14">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>199403</v>
       </c>
@@ -3076,8 +3724,20 @@
       <c r="Q54">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S54" s="4">
+        <v>106</v>
+      </c>
+      <c r="T54" s="8">
+        <v>166</v>
+      </c>
+      <c r="U54" s="10">
+        <v>168</v>
+      </c>
+      <c r="V54" s="14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>199405</v>
       </c>
@@ -3123,8 +3783,20 @@
       <c r="Q55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S55" s="4">
+        <v>54</v>
+      </c>
+      <c r="T55" s="8">
+        <v>131</v>
+      </c>
+      <c r="U55" s="10">
+        <v>133</v>
+      </c>
+      <c r="V55" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>199407</v>
       </c>
@@ -3170,8 +3842,20 @@
       <c r="Q56">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S56" s="4">
+        <v>103</v>
+      </c>
+      <c r="T56" s="8">
+        <v>225</v>
+      </c>
+      <c r="U56" s="17">
+        <v>401</v>
+      </c>
+      <c r="V56" s="18">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>199408</v>
       </c>
@@ -3217,8 +3901,20 @@
       <c r="Q57">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S57" s="4">
+        <v>21</v>
+      </c>
+      <c r="T57" s="8">
+        <v>128</v>
+      </c>
+      <c r="U57" s="10">
+        <v>130</v>
+      </c>
+      <c r="V57" s="14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>199409</v>
       </c>
@@ -3264,8 +3960,20 @@
       <c r="Q58">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S58" s="4">
+        <v>62</v>
+      </c>
+      <c r="T58" s="8">
+        <v>167</v>
+      </c>
+      <c r="U58" s="10">
+        <v>168</v>
+      </c>
+      <c r="V58" s="14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>199411</v>
       </c>
@@ -3311,8 +4019,20 @@
       <c r="Q59">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S59" s="4">
+        <v>44</v>
+      </c>
+      <c r="T59" s="8">
+        <v>158</v>
+      </c>
+      <c r="U59" s="10">
+        <v>159</v>
+      </c>
+      <c r="V59" s="14">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>199412</v>
       </c>
@@ -3358,8 +4078,20 @@
       <c r="Q60">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S60" s="4">
+        <v>17</v>
+      </c>
+      <c r="T60" s="8">
+        <v>118</v>
+      </c>
+      <c r="U60" s="10">
+        <v>120</v>
+      </c>
+      <c r="V60" s="14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>199502</v>
       </c>
@@ -3405,8 +4137,20 @@
       <c r="Q61">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S61" s="4">
+        <v>621</v>
+      </c>
+      <c r="T61" s="8">
+        <v>702</v>
+      </c>
+      <c r="U61" s="10">
+        <v>716</v>
+      </c>
+      <c r="V61" s="14">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>199503</v>
       </c>
@@ -3452,8 +4196,20 @@
       <c r="Q62">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S62" s="4">
+        <v>137</v>
+      </c>
+      <c r="T62" s="8">
+        <v>221</v>
+      </c>
+      <c r="U62" s="10">
+        <v>222</v>
+      </c>
+      <c r="V62" s="14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>199505</v>
       </c>
@@ -3499,8 +4255,20 @@
       <c r="Q63">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S63" s="4">
+        <v>49</v>
+      </c>
+      <c r="T63" s="8">
+        <v>126</v>
+      </c>
+      <c r="U63" s="10">
+        <v>128</v>
+      </c>
+      <c r="V63" s="14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>199507</v>
       </c>
@@ -3546,8 +4314,20 @@
       <c r="Q64">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S64" s="4">
+        <v>93</v>
+      </c>
+      <c r="T64" s="8">
+        <v>198</v>
+      </c>
+      <c r="U64" s="10">
+        <v>315</v>
+      </c>
+      <c r="V64" s="14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>199508</v>
       </c>
@@ -3593,8 +4373,20 @@
       <c r="Q65">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S65" s="4">
+        <v>36</v>
+      </c>
+      <c r="T65" s="8">
+        <v>119</v>
+      </c>
+      <c r="U65" s="10">
+        <v>120</v>
+      </c>
+      <c r="V65" s="14">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>199509</v>
       </c>
@@ -3640,8 +4432,20 @@
       <c r="Q66">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S66" s="4">
+        <v>28</v>
+      </c>
+      <c r="T66" s="8">
+        <v>169</v>
+      </c>
+      <c r="U66" s="10">
+        <v>170</v>
+      </c>
+      <c r="V66" s="14">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>199511</v>
       </c>
@@ -3687,8 +4491,20 @@
       <c r="Q67">
         <v>79</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S67" s="4">
+        <v>132</v>
+      </c>
+      <c r="T67" s="8">
+        <v>239</v>
+      </c>
+      <c r="U67" s="10">
+        <v>240</v>
+      </c>
+      <c r="V67" s="14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>199512</v>
       </c>
@@ -3734,8 +4550,20 @@
       <c r="Q68">
         <v>78</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S68" s="4">
+        <v>76</v>
+      </c>
+      <c r="T68" s="8">
+        <v>138</v>
+      </c>
+      <c r="U68" s="10">
+        <v>140</v>
+      </c>
+      <c r="V68" s="14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>199601</v>
       </c>
@@ -3781,8 +4609,20 @@
       <c r="Q69">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S69" s="4">
+        <v>45</v>
+      </c>
+      <c r="T69" s="8">
+        <v>121</v>
+      </c>
+      <c r="U69" s="10">
+        <v>238</v>
+      </c>
+      <c r="V69" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>199603</v>
       </c>
@@ -3828,8 +4668,20 @@
       <c r="Q70">
         <v>43</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S70" s="4">
+        <v>6</v>
+      </c>
+      <c r="T70" s="8">
+        <v>78</v>
+      </c>
+      <c r="U70" s="10">
+        <v>79</v>
+      </c>
+      <c r="V70" s="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>199605</v>
       </c>
@@ -3875,8 +4727,20 @@
       <c r="Q71">
         <v>44</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S71" s="4">
+        <v>7</v>
+      </c>
+      <c r="T71" s="8">
+        <v>112</v>
+      </c>
+      <c r="U71" s="10">
+        <v>113</v>
+      </c>
+      <c r="V71" s="14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>199607</v>
       </c>
@@ -3922,8 +4786,20 @@
       <c r="Q72">
         <v>62</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S72" s="4">
+        <v>44</v>
+      </c>
+      <c r="T72" s="8">
+        <v>184</v>
+      </c>
+      <c r="U72" s="17">
+        <v>405</v>
+      </c>
+      <c r="V72" s="18">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>199608</v>
       </c>
@@ -3969,8 +4845,20 @@
       <c r="Q73">
         <v>51</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S73" s="4">
+        <v>48</v>
+      </c>
+      <c r="T73" s="8">
+        <v>128</v>
+      </c>
+      <c r="U73" s="10">
+        <v>129</v>
+      </c>
+      <c r="V73" s="14">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>199609</v>
       </c>
@@ -4016,8 +4904,20 @@
       <c r="Q74">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S74" s="4">
+        <v>28</v>
+      </c>
+      <c r="T74" s="8">
+        <v>70</v>
+      </c>
+      <c r="U74" s="10">
+        <v>71</v>
+      </c>
+      <c r="V74" s="14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>199611</v>
       </c>
@@ -4063,8 +4963,20 @@
       <c r="Q75">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S75" s="4">
+        <v>24</v>
+      </c>
+      <c r="T75" s="8">
+        <v>107</v>
+      </c>
+      <c r="U75" s="10">
+        <v>108</v>
+      </c>
+      <c r="V75" s="14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>199612</v>
       </c>
@@ -4110,8 +5022,20 @@
       <c r="Q76">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S76" s="4">
+        <v>60</v>
+      </c>
+      <c r="T76" s="8">
+        <v>123</v>
+      </c>
+      <c r="U76" s="10">
+        <v>124</v>
+      </c>
+      <c r="V76" s="14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>199702</v>
       </c>
@@ -4157,8 +5081,20 @@
       <c r="Q77">
         <v>69</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S77" s="4">
+        <v>117</v>
+      </c>
+      <c r="T77" s="8">
+        <v>212</v>
+      </c>
+      <c r="U77" s="17">
+        <v>327</v>
+      </c>
+      <c r="V77" s="18">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>199703</v>
       </c>
@@ -4204,8 +5140,20 @@
       <c r="Q78">
         <v>53</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S78" s="4">
+        <v>11</v>
+      </c>
+      <c r="T78" s="8">
+        <v>74</v>
+      </c>
+      <c r="U78" s="10">
+        <v>75</v>
+      </c>
+      <c r="V78" s="14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>199705</v>
       </c>
@@ -4251,8 +5199,20 @@
       <c r="Q79">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S79" s="4">
+        <v>37</v>
+      </c>
+      <c r="T79" s="8">
+        <v>88</v>
+      </c>
+      <c r="U79" s="10">
+        <v>89</v>
+      </c>
+      <c r="V79" s="14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>199707</v>
       </c>
@@ -4298,8 +5258,20 @@
       <c r="Q80">
         <v>106</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S80" s="4">
+        <v>20</v>
+      </c>
+      <c r="T80" s="8">
+        <v>81</v>
+      </c>
+      <c r="U80" s="17">
+        <v>223</v>
+      </c>
+      <c r="V80" s="18">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>199708</v>
       </c>
@@ -4345,8 +5317,20 @@
       <c r="Q81">
         <v>105</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S81" s="4">
+        <v>48</v>
+      </c>
+      <c r="T81" s="8">
+        <v>120</v>
+      </c>
+      <c r="U81" s="10">
+        <v>121</v>
+      </c>
+      <c r="V81" s="14">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>199709</v>
       </c>
@@ -4392,8 +5376,20 @@
       <c r="Q82">
         <v>58</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S82" s="4">
+        <v>11</v>
+      </c>
+      <c r="T82" s="8">
+        <v>97</v>
+      </c>
+      <c r="U82" s="10">
+        <v>98</v>
+      </c>
+      <c r="V82" s="14">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>199711</v>
       </c>
@@ -4439,8 +5435,20 @@
       <c r="Q83">
         <v>48</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S83" s="4">
+        <v>72</v>
+      </c>
+      <c r="T83" s="8">
+        <v>180</v>
+      </c>
+      <c r="U83" s="10">
+        <v>181</v>
+      </c>
+      <c r="V83" s="14">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>199712</v>
       </c>
@@ -4486,8 +5494,20 @@
       <c r="Q84">
         <v>48</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S84" s="4">
+        <v>28</v>
+      </c>
+      <c r="T84" s="8">
+        <v>87</v>
+      </c>
+      <c r="U84" s="10">
+        <v>88</v>
+      </c>
+      <c r="V84" s="14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>199802</v>
       </c>
@@ -4533,8 +5553,20 @@
       <c r="Q85">
         <v>73</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S85" s="4">
+        <v>60</v>
+      </c>
+      <c r="T85" s="8">
+        <v>13</v>
+      </c>
+      <c r="U85" s="17">
+        <v>233</v>
+      </c>
+      <c r="V85" s="18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>199803</v>
       </c>
@@ -4580,8 +5612,20 @@
       <c r="Q86">
         <v>72</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S86" s="4">
+        <v>42</v>
+      </c>
+      <c r="T86" s="8">
+        <v>135</v>
+      </c>
+      <c r="U86" s="10">
+        <v>136</v>
+      </c>
+      <c r="V86" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>199805</v>
       </c>
@@ -4627,8 +5671,20 @@
       <c r="Q87">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S87" s="4">
+        <v>50</v>
+      </c>
+      <c r="T87" s="8">
+        <v>176</v>
+      </c>
+      <c r="U87" s="10">
+        <v>180</v>
+      </c>
+      <c r="V87" s="14">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>199807</v>
       </c>
@@ -4674,8 +5730,20 @@
       <c r="Q88">
         <v>44</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S88" s="4">
+        <v>36</v>
+      </c>
+      <c r="T88" s="8">
+        <v>159</v>
+      </c>
+      <c r="U88" s="17">
+        <v>288</v>
+      </c>
+      <c r="V88" s="18">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>199808</v>
       </c>
@@ -4721,8 +5789,20 @@
       <c r="Q89">
         <v>47</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S89" s="4">
+        <v>58</v>
+      </c>
+      <c r="T89" s="8">
+        <v>136</v>
+      </c>
+      <c r="U89" s="10">
+        <v>137</v>
+      </c>
+      <c r="V89" s="14">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>199809</v>
       </c>
@@ -4768,8 +5848,20 @@
       <c r="Q90">
         <v>47</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S90" s="4">
+        <v>105</v>
+      </c>
+      <c r="T90" s="8">
+        <v>163</v>
+      </c>
+      <c r="U90" s="10">
+        <v>164</v>
+      </c>
+      <c r="V90" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>199811</v>
       </c>
@@ -4815,8 +5907,20 @@
       <c r="Q91">
         <v>45</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S91" s="4">
+        <v>166</v>
+      </c>
+      <c r="T91" s="8">
+        <v>236</v>
+      </c>
+      <c r="U91" s="10">
+        <v>237</v>
+      </c>
+      <c r="V91" s="14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>199812</v>
       </c>
@@ -4862,8 +5966,20 @@
       <c r="Q92">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S92" s="4">
+        <v>42</v>
+      </c>
+      <c r="T92" s="8">
+        <v>113</v>
+      </c>
+      <c r="U92" s="10">
+        <v>114</v>
+      </c>
+      <c r="V92" s="14">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>199902</v>
       </c>
@@ -4909,8 +6025,20 @@
       <c r="Q93">
         <v>111</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S93" s="4">
+        <v>78</v>
+      </c>
+      <c r="T93" s="8">
+        <v>177</v>
+      </c>
+      <c r="U93" s="17">
+        <v>261</v>
+      </c>
+      <c r="V93" s="18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>199903</v>
       </c>
@@ -4956,8 +6084,20 @@
       <c r="Q94">
         <v>40</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S94" s="4">
+        <v>19</v>
+      </c>
+      <c r="T94" s="8">
+        <v>78</v>
+      </c>
+      <c r="U94" s="10">
+        <v>79</v>
+      </c>
+      <c r="V94" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>199905</v>
       </c>
@@ -5003,8 +6143,20 @@
       <c r="Q95">
         <v>53</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S95" s="4">
+        <v>48</v>
+      </c>
+      <c r="T95" s="8">
+        <v>137</v>
+      </c>
+      <c r="U95" s="10">
+        <v>138</v>
+      </c>
+      <c r="V95" s="14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>199906</v>
       </c>
@@ -5050,8 +6202,20 @@
       <c r="Q96">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S96" s="4">
+        <v>36</v>
+      </c>
+      <c r="T96" s="8">
+        <v>115</v>
+      </c>
+      <c r="U96" s="10">
+        <v>160</v>
+      </c>
+      <c r="V96" s="14">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>199908</v>
       </c>
@@ -5097,8 +6261,20 @@
       <c r="Q97">
         <v>38</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S97" s="4">
+        <v>170</v>
+      </c>
+      <c r="T97" s="8">
+        <v>221</v>
+      </c>
+      <c r="U97" s="10">
+        <v>222</v>
+      </c>
+      <c r="V97" s="14">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>199910</v>
       </c>
@@ -5144,8 +6320,20 @@
       <c r="Q98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S98" s="4">
+        <v>18</v>
+      </c>
+      <c r="T98" s="8">
+        <v>75</v>
+      </c>
+      <c r="U98" s="10">
+        <v>76</v>
+      </c>
+      <c r="V98" s="14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>199911</v>
       </c>
@@ -5191,8 +6379,20 @@
       <c r="Q99">
         <v>38</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S99" s="4">
+        <v>23</v>
+      </c>
+      <c r="T99" s="8">
+        <v>84</v>
+      </c>
+      <c r="U99" s="10">
+        <v>85</v>
+      </c>
+      <c r="V99" s="14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>199912</v>
       </c>
@@ -5238,8 +6438,20 @@
       <c r="Q100">
         <v>60</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S100" s="4">
+        <v>25</v>
+      </c>
+      <c r="T100" s="8">
+        <v>87</v>
+      </c>
+      <c r="U100" s="10">
+        <v>88</v>
+      </c>
+      <c r="V100" s="14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>200002</v>
       </c>
@@ -5285,8 +6497,20 @@
       <c r="Q101">
         <v>92</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S101" s="4">
+        <v>60</v>
+      </c>
+      <c r="T101" s="8">
+        <v>165</v>
+      </c>
+      <c r="U101" s="17">
+        <v>262</v>
+      </c>
+      <c r="V101" s="18">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>200003</v>
       </c>
@@ -5332,8 +6556,20 @@
       <c r="Q102">
         <v>63</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S102" s="4">
+        <v>98</v>
+      </c>
+      <c r="T102" s="8">
+        <v>160</v>
+      </c>
+      <c r="U102" s="10">
+        <v>161</v>
+      </c>
+      <c r="V102" s="14">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>200005</v>
       </c>
@@ -5379,8 +6615,20 @@
       <c r="Q103">
         <v>58</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S103" s="4">
+        <v>45</v>
+      </c>
+      <c r="T103" s="8">
+        <v>149</v>
+      </c>
+      <c r="U103" s="10">
+        <v>150</v>
+      </c>
+      <c r="V103" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>200006</v>
       </c>
@@ -5426,8 +6674,20 @@
       <c r="Q104">
         <v>59</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S104" s="4">
+        <v>17</v>
+      </c>
+      <c r="T104" s="8">
+        <v>123</v>
+      </c>
+      <c r="U104" s="10">
+        <v>149</v>
+      </c>
+      <c r="V104" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>200008</v>
       </c>
@@ -5473,8 +6733,20 @@
       <c r="Q105">
         <v>54</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S105" s="4">
+        <v>53</v>
+      </c>
+      <c r="T105" s="8">
+        <v>108</v>
+      </c>
+      <c r="U105" s="10">
+        <v>109</v>
+      </c>
+      <c r="V105" s="14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>200010</v>
       </c>
@@ -5520,8 +6792,20 @@
       <c r="Q106">
         <v>49</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S106" s="4">
+        <v>72</v>
+      </c>
+      <c r="T106" s="8">
+        <v>133</v>
+      </c>
+      <c r="U106" s="10">
+        <v>134</v>
+      </c>
+      <c r="V106" s="14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>200011</v>
       </c>
@@ -5567,8 +6851,20 @@
       <c r="Q107">
         <v>63</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S107" s="4">
+        <v>35</v>
+      </c>
+      <c r="T107" s="8">
+        <v>123</v>
+      </c>
+      <c r="U107" s="10">
+        <v>124</v>
+      </c>
+      <c r="V107" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>200012</v>
       </c>
@@ -5614,8 +6910,20 @@
       <c r="Q108">
         <v>64</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S108" s="4">
+        <v>30</v>
+      </c>
+      <c r="T108" s="8">
+        <v>96</v>
+      </c>
+      <c r="U108" s="10">
+        <v>97</v>
+      </c>
+      <c r="V108" s="14">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>200101</v>
       </c>
@@ -5661,8 +6969,20 @@
       <c r="Q109">
         <v>52</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S109" s="4">
+        <v>292</v>
+      </c>
+      <c r="T109" s="8">
+        <v>395</v>
+      </c>
+      <c r="U109" s="10">
+        <v>396</v>
+      </c>
+      <c r="V109" s="14">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>200103</v>
       </c>
@@ -5708,8 +7028,20 @@
       <c r="Q110">
         <v>88</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S110" s="4">
+        <v>21</v>
+      </c>
+      <c r="T110" s="8">
+        <v>110</v>
+      </c>
+      <c r="U110" s="10">
+        <v>111</v>
+      </c>
+      <c r="V110" s="14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>200105</v>
       </c>
@@ -5755,8 +7087,20 @@
       <c r="Q111">
         <v>94</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S111" s="4">
+        <v>49</v>
+      </c>
+      <c r="T111" s="8">
+        <v>109</v>
+      </c>
+      <c r="U111" s="10">
+        <v>110</v>
+      </c>
+      <c r="V111" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>200106</v>
       </c>
@@ -5802,8 +7146,20 @@
       <c r="Q112">
         <v>62</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S112" s="4">
+        <v>135</v>
+      </c>
+      <c r="T112" s="8">
+        <v>250</v>
+      </c>
+      <c r="U112" s="10">
+        <v>251</v>
+      </c>
+      <c r="V112" s="14">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>200108</v>
       </c>
@@ -5849,8 +7205,20 @@
       <c r="Q113">
         <v>56</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S113" s="4">
+        <v>8</v>
+      </c>
+      <c r="T113" s="8">
+        <v>49</v>
+      </c>
+      <c r="U113" s="10">
+        <v>50</v>
+      </c>
+      <c r="V113" s="14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>200110</v>
       </c>
@@ -5896,8 +7264,20 @@
       <c r="Q114">
         <v>65</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S114" s="4">
+        <v>34</v>
+      </c>
+      <c r="T114" s="8">
+        <v>87</v>
+      </c>
+      <c r="U114" s="10">
+        <v>88</v>
+      </c>
+      <c r="V114" s="14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>200111</v>
       </c>
@@ -5943,8 +7323,20 @@
       <c r="Q115">
         <v>152</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S115" s="4">
+        <v>28</v>
+      </c>
+      <c r="T115" s="8">
+        <v>110</v>
+      </c>
+      <c r="U115" s="10">
+        <v>111</v>
+      </c>
+      <c r="V115" s="14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>200112</v>
       </c>
@@ -5990,8 +7382,20 @@
       <c r="Q116">
         <v>83</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S116" s="4">
+        <v>25</v>
+      </c>
+      <c r="T116" s="8">
+        <v>127</v>
+      </c>
+      <c r="U116" s="10">
+        <v>128</v>
+      </c>
+      <c r="V116" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>200201</v>
       </c>
@@ -6037,8 +7441,20 @@
       <c r="Q117">
         <v>72</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S117" s="4">
+        <v>93</v>
+      </c>
+      <c r="T117" s="8">
+        <v>202</v>
+      </c>
+      <c r="U117" s="10">
+        <v>203</v>
+      </c>
+      <c r="V117" s="14">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>200203</v>
       </c>
@@ -6084,8 +7500,20 @@
       <c r="Q118">
         <v>66</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S118" s="4">
+        <v>79</v>
+      </c>
+      <c r="T118" s="8">
+        <v>141</v>
+      </c>
+      <c r="U118" s="10">
+        <v>142</v>
+      </c>
+      <c r="V118" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>200205</v>
       </c>
@@ -6131,8 +7559,20 @@
       <c r="Q119">
         <v>65</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S119" s="4">
+        <v>26</v>
+      </c>
+      <c r="T119" s="8">
+        <v>125</v>
+      </c>
+      <c r="U119" s="10">
+        <v>126</v>
+      </c>
+      <c r="V119" s="14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>200206</v>
       </c>
@@ -6178,8 +7618,20 @@
       <c r="Q120">
         <v>86</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S120" s="4">
+        <v>139</v>
+      </c>
+      <c r="T120" s="8">
+        <v>206</v>
+      </c>
+      <c r="U120" s="10">
+        <v>207</v>
+      </c>
+      <c r="V120" s="14">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>200208</v>
       </c>
@@ -6225,8 +7677,20 @@
       <c r="Q121">
         <v>57</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S121" s="4">
+        <v>48</v>
+      </c>
+      <c r="T121" s="8">
+        <v>106</v>
+      </c>
+      <c r="U121" s="10">
+        <v>107</v>
+      </c>
+      <c r="V121" s="14">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>200209</v>
       </c>
@@ -6272,8 +7736,20 @@
       <c r="Q122">
         <v>98</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S122" s="4">
+        <v>52</v>
+      </c>
+      <c r="T122" s="8">
+        <v>131</v>
+      </c>
+      <c r="U122" s="10">
+        <v>132</v>
+      </c>
+      <c r="V122" s="14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>200211</v>
       </c>
@@ -6319,8 +7795,20 @@
       <c r="Q123">
         <v>61</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S123" s="4">
+        <v>13</v>
+      </c>
+      <c r="T123" s="8">
+        <v>105</v>
+      </c>
+      <c r="U123" s="10">
+        <v>106</v>
+      </c>
+      <c r="V123" s="14">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>200212</v>
       </c>
@@ -6366,8 +7854,20 @@
       <c r="Q124">
         <v>61</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S124" s="4">
+        <v>10</v>
+      </c>
+      <c r="T124" s="8">
+        <v>140</v>
+      </c>
+      <c r="U124" s="10">
+        <v>141</v>
+      </c>
+      <c r="V124" s="14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>200301</v>
       </c>
@@ -6413,8 +7913,20 @@
       <c r="Q125">
         <v>43</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S125" s="4">
+        <v>223</v>
+      </c>
+      <c r="T125" s="8">
+        <v>349</v>
+      </c>
+      <c r="U125" s="10">
+        <v>350</v>
+      </c>
+      <c r="V125" s="14">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>200303</v>
       </c>
@@ -6460,8 +7972,20 @@
       <c r="Q126">
         <v>100</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S126" s="4">
+        <v>31</v>
+      </c>
+      <c r="T126" s="8">
+        <v>100</v>
+      </c>
+      <c r="U126" s="10">
+        <v>101</v>
+      </c>
+      <c r="V126" s="14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>200305</v>
       </c>
@@ -6507,8 +8031,20 @@
       <c r="Q127">
         <v>91</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S127" s="4">
+        <v>28</v>
+      </c>
+      <c r="T127" s="8">
+        <v>123</v>
+      </c>
+      <c r="U127" s="10">
+        <v>124</v>
+      </c>
+      <c r="V127" s="14">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>200306</v>
       </c>
@@ -6554,8 +8090,20 @@
       <c r="Q128">
         <v>112</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S128" s="4">
+        <v>92</v>
+      </c>
+      <c r="T128" s="8">
+        <v>184</v>
+      </c>
+      <c r="U128" s="10">
+        <v>185</v>
+      </c>
+      <c r="V128" s="14">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>200308</v>
       </c>
@@ -6601,8 +8149,20 @@
       <c r="Q129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S129" s="4">
+        <v>39</v>
+      </c>
+      <c r="T129" s="8">
+        <v>104</v>
+      </c>
+      <c r="U129" s="10">
+        <v>105</v>
+      </c>
+      <c r="V129" s="14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>200309</v>
       </c>
@@ -6648,8 +8208,20 @@
       <c r="Q130">
         <v>68</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S130" s="4">
+        <v>258</v>
+      </c>
+      <c r="T130" s="8">
+        <v>341</v>
+      </c>
+      <c r="U130" s="10">
+        <v>342</v>
+      </c>
+      <c r="V130" s="14">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>200310</v>
       </c>
@@ -6695,8 +8267,20 @@
       <c r="Q131">
         <v>58</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S131" s="4">
+        <v>46</v>
+      </c>
+      <c r="T131" s="8">
+        <v>129</v>
+      </c>
+      <c r="U131" s="10">
+        <v>130</v>
+      </c>
+      <c r="V131" s="14">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>200312</v>
       </c>
@@ -6742,8 +8326,20 @@
       <c r="Q132">
         <v>51</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S132" s="4">
+        <v>44</v>
+      </c>
+      <c r="T132" s="8">
+        <v>156</v>
+      </c>
+      <c r="U132" s="10">
+        <v>157</v>
+      </c>
+      <c r="V132" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>200401</v>
       </c>
@@ -6789,8 +8385,20 @@
       <c r="Q133">
         <v>59</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S133" s="4">
+        <v>249</v>
+      </c>
+      <c r="T133" s="8">
+        <v>370</v>
+      </c>
+      <c r="U133" s="10">
+        <v>371</v>
+      </c>
+      <c r="V133" s="14">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>200403</v>
       </c>
@@ -6836,8 +8444,20 @@
       <c r="Q134">
         <v>67</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S134" s="4">
+        <v>41</v>
+      </c>
+      <c r="T134" s="8">
+        <v>121</v>
+      </c>
+      <c r="U134" s="10">
+        <v>122</v>
+      </c>
+      <c r="V134" s="14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>200405</v>
       </c>
@@ -6883,8 +8503,20 @@
       <c r="Q135">
         <v>109</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S135" s="4">
+        <v>54</v>
+      </c>
+      <c r="T135" s="8">
+        <v>101</v>
+      </c>
+      <c r="U135" s="10">
+        <v>102</v>
+      </c>
+      <c r="V135" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>200406</v>
       </c>
@@ -6930,8 +8562,20 @@
       <c r="Q136">
         <v>36</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S136" s="4">
+        <v>212</v>
+      </c>
+      <c r="T136" s="8">
+        <v>342</v>
+      </c>
+      <c r="U136" s="10">
+        <v>343</v>
+      </c>
+      <c r="V136" s="14">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>200408</v>
       </c>
@@ -6977,8 +8621,20 @@
       <c r="Q137">
         <v>63</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S137" s="4">
+        <v>28</v>
+      </c>
+      <c r="T137" s="8">
+        <v>104</v>
+      </c>
+      <c r="U137" s="10">
+        <v>105</v>
+      </c>
+      <c r="V137" s="14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>200409</v>
       </c>
@@ -7024,8 +8680,20 @@
       <c r="Q138">
         <v>54</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S138" s="4">
+        <v>56</v>
+      </c>
+      <c r="T138" s="8">
+        <v>154</v>
+      </c>
+      <c r="U138" s="10">
+        <v>155</v>
+      </c>
+      <c r="V138" s="14">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>200411</v>
       </c>
@@ -7071,8 +8739,20 @@
       <c r="Q139">
         <v>56</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S139" s="4">
+        <v>47</v>
+      </c>
+      <c r="T139" s="8">
+        <v>113</v>
+      </c>
+      <c r="U139" s="10">
+        <v>114</v>
+      </c>
+      <c r="V139" s="14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>200412</v>
       </c>
@@ -7118,8 +8798,20 @@
       <c r="Q140">
         <v>57</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S140" s="4">
+        <v>20</v>
+      </c>
+      <c r="T140" s="8">
+        <v>61</v>
+      </c>
+      <c r="U140" s="10">
+        <v>62</v>
+      </c>
+      <c r="V140" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>200502</v>
       </c>
@@ -7165,8 +8857,20 @@
       <c r="Q141">
         <v>63</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S141" s="4">
+        <v>94</v>
+      </c>
+      <c r="T141" s="8">
+        <v>171</v>
+      </c>
+      <c r="U141" s="10">
+        <v>172</v>
+      </c>
+      <c r="V141" s="14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>200503</v>
       </c>
@@ -7179,7 +8883,7 @@
       <c r="D142" s="5">
         <v>34</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="8">
         <v>135</v>
       </c>
       <c r="F142" s="7">
@@ -7212,8 +8916,20 @@
       <c r="Q142">
         <v>116</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S142" s="4">
+        <v>34</v>
+      </c>
+      <c r="T142" s="8">
+        <v>135</v>
+      </c>
+      <c r="U142" s="10">
+        <v>136</v>
+      </c>
+      <c r="V142" s="14">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>200505</v>
       </c>
@@ -7259,8 +8975,20 @@
       <c r="Q143">
         <v>63</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S143" s="4">
+        <v>28</v>
+      </c>
+      <c r="T143" s="8">
+        <v>110</v>
+      </c>
+      <c r="U143" s="10">
+        <v>112</v>
+      </c>
+      <c r="V143" s="14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>200506</v>
       </c>
@@ -7306,8 +9034,20 @@
       <c r="Q144">
         <v>40</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S144" s="4">
+        <v>244</v>
+      </c>
+      <c r="T144" s="8">
+        <v>384</v>
+      </c>
+      <c r="U144" s="10">
+        <v>384</v>
+      </c>
+      <c r="V144" s="14">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>200508</v>
       </c>
@@ -7353,8 +9093,20 @@
       <c r="Q145">
         <v>55</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S145" s="4">
+        <v>55</v>
+      </c>
+      <c r="T145" s="8">
+        <v>168</v>
+      </c>
+      <c r="U145" s="10">
+        <v>169</v>
+      </c>
+      <c r="V145" s="14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>200509</v>
       </c>
@@ -7400,8 +9152,20 @@
       <c r="Q146">
         <v>39</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S146" s="4">
+        <v>17</v>
+      </c>
+      <c r="T146" s="8">
+        <v>106</v>
+      </c>
+      <c r="U146" s="10">
+        <v>107</v>
+      </c>
+      <c r="V146" s="14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>200511</v>
       </c>
@@ -7447,8 +9211,20 @@
       <c r="Q147">
         <v>87</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S147" s="4">
+        <v>70</v>
+      </c>
+      <c r="T147" s="8">
+        <v>150</v>
+      </c>
+      <c r="U147" s="10">
+        <v>151</v>
+      </c>
+      <c r="V147" s="14">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>200512</v>
       </c>
@@ -7494,8 +9270,20 @@
       <c r="Q148">
         <v>48</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S148" s="4">
+        <v>23</v>
+      </c>
+      <c r="T148" s="8">
+        <v>93</v>
+      </c>
+      <c r="U148" s="10">
+        <v>94</v>
+      </c>
+      <c r="V148" s="14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>200601</v>
       </c>
@@ -7540,10 +9328,2573 @@
       </c>
       <c r="Q149">
         <v>49</v>
+      </c>
+      <c r="S149" s="4">
+        <v>57</v>
+      </c>
+      <c r="T149" s="8">
+        <v>116</v>
+      </c>
+      <c r="U149" s="10">
+        <v>117</v>
+      </c>
+      <c r="V149" s="14">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C1EDF1-1ED8-43B4-9C3F-2B380F29457A}">
+  <dimension ref="A1:E149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:E149"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>198708</v>
+      </c>
+      <c r="B2" s="4">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8">
+        <v>150</v>
+      </c>
+      <c r="D2" s="10">
+        <v>151</v>
+      </c>
+      <c r="E2" s="14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>198709</v>
+      </c>
+      <c r="B3" s="4">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8">
+        <v>180</v>
+      </c>
+      <c r="D3" s="10">
+        <v>181</v>
+      </c>
+      <c r="E3" s="14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>198711</v>
+      </c>
+      <c r="B4" s="4">
+        <v>83</v>
+      </c>
+      <c r="C4" s="8">
+        <v>165</v>
+      </c>
+      <c r="D4" s="10">
+        <v>166</v>
+      </c>
+      <c r="E4" s="14">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>198712</v>
+      </c>
+      <c r="B5" s="4">
+        <v>504</v>
+      </c>
+      <c r="C5" s="8">
+        <v>643</v>
+      </c>
+      <c r="D5" s="10">
+        <v>644</v>
+      </c>
+      <c r="E5" s="14">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>198802</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>140</v>
+      </c>
+      <c r="D6" s="10">
+        <v>315</v>
+      </c>
+      <c r="E6" s="14">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>198803</v>
+      </c>
+      <c r="B7" s="4">
+        <v>316</v>
+      </c>
+      <c r="C7" s="8">
+        <v>372</v>
+      </c>
+      <c r="D7" s="10">
+        <v>373</v>
+      </c>
+      <c r="E7" s="14">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>198806</v>
+      </c>
+      <c r="B8" s="4">
+        <v>126</v>
+      </c>
+      <c r="C8" s="8">
+        <v>207</v>
+      </c>
+      <c r="D8" s="10">
+        <v>244</v>
+      </c>
+      <c r="E8" s="14">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>198808</v>
+      </c>
+      <c r="B9" s="4">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8">
+        <v>206</v>
+      </c>
+      <c r="D9" s="10">
+        <v>207</v>
+      </c>
+      <c r="E9" s="14">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>198809</v>
+      </c>
+      <c r="B10" s="4">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8">
+        <v>141</v>
+      </c>
+      <c r="D10" s="10">
+        <v>143</v>
+      </c>
+      <c r="E10" s="14">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>198811</v>
+      </c>
+      <c r="B11" s="4">
+        <v>227</v>
+      </c>
+      <c r="C11" s="8">
+        <v>345</v>
+      </c>
+      <c r="D11" s="10">
+        <v>346</v>
+      </c>
+      <c r="E11" s="14">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>198812</v>
+      </c>
+      <c r="B12" s="4">
+        <v>151</v>
+      </c>
+      <c r="C12" s="8">
+        <v>397</v>
+      </c>
+      <c r="D12" s="10">
+        <v>398</v>
+      </c>
+      <c r="E12" s="14">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>198902</v>
+      </c>
+      <c r="B13" s="4">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
+        <v>169</v>
+      </c>
+      <c r="D13" s="10">
+        <v>408</v>
+      </c>
+      <c r="E13" s="14">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>198903</v>
+      </c>
+      <c r="B14" s="4">
+        <v>150</v>
+      </c>
+      <c r="C14" s="8">
+        <v>290</v>
+      </c>
+      <c r="D14" s="10">
+        <v>292</v>
+      </c>
+      <c r="E14" s="14">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>198905</v>
+      </c>
+      <c r="B15" s="4">
+        <v>131</v>
+      </c>
+      <c r="C15" s="8">
+        <v>238</v>
+      </c>
+      <c r="D15" s="10">
+        <v>239</v>
+      </c>
+      <c r="E15" s="14">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>198907</v>
+      </c>
+      <c r="B16" s="4">
+        <v>103</v>
+      </c>
+      <c r="C16" s="8">
+        <v>245</v>
+      </c>
+      <c r="D16" s="10">
+        <v>332</v>
+      </c>
+      <c r="E16" s="14">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>198908</v>
+      </c>
+      <c r="B17" s="4">
+        <v>101</v>
+      </c>
+      <c r="C17" s="8">
+        <v>338</v>
+      </c>
+      <c r="D17" s="10">
+        <v>339</v>
+      </c>
+      <c r="E17" s="14">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>198910</v>
+      </c>
+      <c r="B18" s="4">
+        <v>235</v>
+      </c>
+      <c r="C18" s="8">
+        <v>326</v>
+      </c>
+      <c r="D18" s="10">
+        <v>327</v>
+      </c>
+      <c r="E18" s="14">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>198911</v>
+      </c>
+      <c r="B19" s="4">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8">
+        <v>191</v>
+      </c>
+      <c r="D19" s="10">
+        <v>193</v>
+      </c>
+      <c r="E19" s="14">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>198912</v>
+      </c>
+      <c r="B20" s="4">
+        <v>516</v>
+      </c>
+      <c r="C20" s="8">
+        <v>660</v>
+      </c>
+      <c r="D20" s="10">
+        <v>662</v>
+      </c>
+      <c r="E20" s="14">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>199002</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>111</v>
+      </c>
+      <c r="D21" s="10">
+        <v>305</v>
+      </c>
+      <c r="E21" s="14">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>199003</v>
+      </c>
+      <c r="B22" s="4">
+        <v>96</v>
+      </c>
+      <c r="C22" s="8">
+        <v>253</v>
+      </c>
+      <c r="D22" s="10">
+        <v>255</v>
+      </c>
+      <c r="E22" s="14">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>199005</v>
+      </c>
+      <c r="B23" s="4">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8">
+        <v>124</v>
+      </c>
+      <c r="D23" s="10">
+        <v>126</v>
+      </c>
+      <c r="E23" s="14">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>199007</v>
+      </c>
+      <c r="B24" s="4">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8">
+        <v>142</v>
+      </c>
+      <c r="D24" s="10">
+        <v>284</v>
+      </c>
+      <c r="E24" s="14">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>199008</v>
+      </c>
+      <c r="B25" s="4">
+        <v>29</v>
+      </c>
+      <c r="C25" s="8">
+        <v>193</v>
+      </c>
+      <c r="D25" s="10">
+        <v>194</v>
+      </c>
+      <c r="E25" s="14">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>199010</v>
+      </c>
+      <c r="B26" s="4">
+        <v>98</v>
+      </c>
+      <c r="C26" s="8">
+        <v>213</v>
+      </c>
+      <c r="D26" s="10">
+        <v>214</v>
+      </c>
+      <c r="E26" s="14">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>199011</v>
+      </c>
+      <c r="B27" s="4">
+        <v>188</v>
+      </c>
+      <c r="C27" s="8">
+        <v>299</v>
+      </c>
+      <c r="D27" s="10">
+        <v>300</v>
+      </c>
+      <c r="E27" s="14">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>199012</v>
+      </c>
+      <c r="B28" s="4">
+        <v>68</v>
+      </c>
+      <c r="C28" s="8">
+        <v>131</v>
+      </c>
+      <c r="D28" s="10">
+        <v>133</v>
+      </c>
+      <c r="E28" s="14">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>199102</v>
+      </c>
+      <c r="B29" s="4">
+        <v>180</v>
+      </c>
+      <c r="C29" s="8">
+        <v>294</v>
+      </c>
+      <c r="D29" s="10">
+        <v>357</v>
+      </c>
+      <c r="E29" s="14">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>199103</v>
+      </c>
+      <c r="B30" s="4">
+        <v>202</v>
+      </c>
+      <c r="C30" s="8">
+        <v>243</v>
+      </c>
+      <c r="D30" s="10">
+        <v>244</v>
+      </c>
+      <c r="E30" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>199105</v>
+      </c>
+      <c r="B31" s="4">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8">
+        <v>96</v>
+      </c>
+      <c r="D31" s="10">
+        <v>97</v>
+      </c>
+      <c r="E31" s="14">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>199107</v>
+      </c>
+      <c r="B32" s="4">
+        <v>51</v>
+      </c>
+      <c r="C32" s="8">
+        <v>197</v>
+      </c>
+      <c r="D32" s="10">
+        <v>302</v>
+      </c>
+      <c r="E32" s="14">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>199108</v>
+      </c>
+      <c r="B33" s="4">
+        <v>131</v>
+      </c>
+      <c r="C33" s="8">
+        <v>198</v>
+      </c>
+      <c r="D33" s="10">
+        <v>199</v>
+      </c>
+      <c r="E33" s="14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>199110</v>
+      </c>
+      <c r="B34" s="4">
+        <v>42</v>
+      </c>
+      <c r="C34" s="8">
+        <v>138</v>
+      </c>
+      <c r="D34" s="10">
+        <v>140</v>
+      </c>
+      <c r="E34" s="14">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>199111</v>
+      </c>
+      <c r="B35" s="4">
+        <v>20</v>
+      </c>
+      <c r="C35" s="8">
+        <v>109</v>
+      </c>
+      <c r="D35" s="10">
+        <v>109</v>
+      </c>
+      <c r="E35" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>199112</v>
+      </c>
+      <c r="B36" s="4">
+        <v>59</v>
+      </c>
+      <c r="C36" s="8">
+        <v>124</v>
+      </c>
+      <c r="D36" s="10">
+        <v>125</v>
+      </c>
+      <c r="E36" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>199202</v>
+      </c>
+      <c r="B37" s="4">
+        <v>71</v>
+      </c>
+      <c r="C37" s="8">
+        <v>151</v>
+      </c>
+      <c r="D37" s="10">
+        <v>310</v>
+      </c>
+      <c r="E37" s="14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>199203</v>
+      </c>
+      <c r="B38" s="4">
+        <v>78</v>
+      </c>
+      <c r="C38" s="8">
+        <v>146</v>
+      </c>
+      <c r="D38" s="10">
+        <v>147</v>
+      </c>
+      <c r="E38" s="14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>199205</v>
+      </c>
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" s="8">
+        <v>163</v>
+      </c>
+      <c r="D39" s="10">
+        <v>136</v>
+      </c>
+      <c r="E39" s="14">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>199207</v>
+      </c>
+      <c r="B40" s="19">
+        <v>48</v>
+      </c>
+      <c r="C40" s="8">
+        <v>156</v>
+      </c>
+      <c r="D40" s="10">
+        <v>367</v>
+      </c>
+      <c r="E40" s="14">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>199208</v>
+      </c>
+      <c r="B41" s="4">
+        <v>42</v>
+      </c>
+      <c r="C41" s="8">
+        <v>133</v>
+      </c>
+      <c r="D41" s="10">
+        <v>134</v>
+      </c>
+      <c r="E41" s="14">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>199210</v>
+      </c>
+      <c r="B42" s="4">
+        <v>81</v>
+      </c>
+      <c r="C42" s="8">
+        <v>229</v>
+      </c>
+      <c r="D42" s="10">
+        <v>86</v>
+      </c>
+      <c r="E42" s="14">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>199211</v>
+      </c>
+      <c r="B43" s="4">
+        <v>29</v>
+      </c>
+      <c r="C43" s="8">
+        <v>88</v>
+      </c>
+      <c r="D43" s="10">
+        <v>89</v>
+      </c>
+      <c r="E43" s="14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>199212</v>
+      </c>
+      <c r="B44" s="4">
+        <v>19</v>
+      </c>
+      <c r="C44" s="8">
+        <v>129</v>
+      </c>
+      <c r="D44" s="10">
+        <v>130</v>
+      </c>
+      <c r="E44" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>199302</v>
+      </c>
+      <c r="B45" s="4">
+        <v>42</v>
+      </c>
+      <c r="C45" s="8">
+        <v>164</v>
+      </c>
+      <c r="D45" s="10">
+        <v>300</v>
+      </c>
+      <c r="E45" s="14">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>199303</v>
+      </c>
+      <c r="B46" s="4">
+        <v>70</v>
+      </c>
+      <c r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="10">
+        <v>137</v>
+      </c>
+      <c r="E46" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>199305</v>
+      </c>
+      <c r="B47" s="4">
+        <v>41</v>
+      </c>
+      <c r="C47" s="8">
+        <v>117</v>
+      </c>
+      <c r="D47" s="10">
+        <v>118</v>
+      </c>
+      <c r="E47" s="14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>199307</v>
+      </c>
+      <c r="B48" s="4">
+        <v>113</v>
+      </c>
+      <c r="C48" s="8">
+        <v>318</v>
+      </c>
+      <c r="D48" s="10">
+        <v>497</v>
+      </c>
+      <c r="E48" s="14">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>199308</v>
+      </c>
+      <c r="B49" s="4">
+        <v>37</v>
+      </c>
+      <c r="C49" s="8">
+        <v>121</v>
+      </c>
+      <c r="D49" s="10">
+        <v>123</v>
+      </c>
+      <c r="E49" s="14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>199309</v>
+      </c>
+      <c r="B50" s="4">
+        <v>16</v>
+      </c>
+      <c r="C50" s="8">
+        <v>137</v>
+      </c>
+      <c r="D50" s="10">
+        <v>138</v>
+      </c>
+      <c r="E50" s="14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>199311</v>
+      </c>
+      <c r="B51" s="4">
+        <v>757</v>
+      </c>
+      <c r="C51" s="8">
+        <v>819</v>
+      </c>
+      <c r="D51" s="10">
+        <v>820</v>
+      </c>
+      <c r="E51" s="14">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>199312</v>
+      </c>
+      <c r="B52" s="4">
+        <v>35</v>
+      </c>
+      <c r="C52" s="8">
+        <v>118</v>
+      </c>
+      <c r="D52" s="10">
+        <v>120</v>
+      </c>
+      <c r="E52" s="14">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>199402</v>
+      </c>
+      <c r="B53" s="4">
+        <v>60</v>
+      </c>
+      <c r="C53" s="8">
+        <v>368</v>
+      </c>
+      <c r="D53" s="10">
+        <v>370</v>
+      </c>
+      <c r="E53" s="14">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>199403</v>
+      </c>
+      <c r="B54" s="4">
+        <v>106</v>
+      </c>
+      <c r="C54" s="8">
+        <v>166</v>
+      </c>
+      <c r="D54" s="10">
+        <v>168</v>
+      </c>
+      <c r="E54" s="14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>199405</v>
+      </c>
+      <c r="B55" s="4">
+        <v>54</v>
+      </c>
+      <c r="C55" s="8">
+        <v>131</v>
+      </c>
+      <c r="D55" s="10">
+        <v>133</v>
+      </c>
+      <c r="E55" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>199407</v>
+      </c>
+      <c r="B56" s="4">
+        <v>103</v>
+      </c>
+      <c r="C56" s="8">
+        <v>225</v>
+      </c>
+      <c r="D56" s="17">
+        <v>401</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>199408</v>
+      </c>
+      <c r="B57" s="4">
+        <v>21</v>
+      </c>
+      <c r="C57" s="8">
+        <v>128</v>
+      </c>
+      <c r="D57" s="10">
+        <v>130</v>
+      </c>
+      <c r="E57" s="14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>199409</v>
+      </c>
+      <c r="B58" s="4">
+        <v>62</v>
+      </c>
+      <c r="C58" s="8">
+        <v>167</v>
+      </c>
+      <c r="D58" s="10">
+        <v>168</v>
+      </c>
+      <c r="E58" s="14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>199411</v>
+      </c>
+      <c r="B59" s="4">
+        <v>44</v>
+      </c>
+      <c r="C59" s="8">
+        <v>158</v>
+      </c>
+      <c r="D59" s="10">
+        <v>159</v>
+      </c>
+      <c r="E59" s="14">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>199412</v>
+      </c>
+      <c r="B60" s="4">
+        <v>17</v>
+      </c>
+      <c r="C60" s="8">
+        <v>118</v>
+      </c>
+      <c r="D60" s="10">
+        <v>120</v>
+      </c>
+      <c r="E60" s="14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>199502</v>
+      </c>
+      <c r="B61" s="4">
+        <v>621</v>
+      </c>
+      <c r="C61" s="8">
+        <v>702</v>
+      </c>
+      <c r="D61" s="10">
+        <v>716</v>
+      </c>
+      <c r="E61" s="14">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>199503</v>
+      </c>
+      <c r="B62" s="4">
+        <v>137</v>
+      </c>
+      <c r="C62" s="8">
+        <v>221</v>
+      </c>
+      <c r="D62" s="10">
+        <v>222</v>
+      </c>
+      <c r="E62" s="14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>199505</v>
+      </c>
+      <c r="B63" s="4">
+        <v>49</v>
+      </c>
+      <c r="C63" s="8">
+        <v>126</v>
+      </c>
+      <c r="D63" s="10">
+        <v>128</v>
+      </c>
+      <c r="E63" s="14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>199507</v>
+      </c>
+      <c r="B64" s="4">
+        <v>93</v>
+      </c>
+      <c r="C64" s="8">
+        <v>198</v>
+      </c>
+      <c r="D64" s="10">
+        <v>315</v>
+      </c>
+      <c r="E64" s="14">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>199508</v>
+      </c>
+      <c r="B65" s="4">
+        <v>36</v>
+      </c>
+      <c r="C65" s="8">
+        <v>119</v>
+      </c>
+      <c r="D65" s="10">
+        <v>120</v>
+      </c>
+      <c r="E65" s="14">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>199509</v>
+      </c>
+      <c r="B66" s="4">
+        <v>28</v>
+      </c>
+      <c r="C66" s="8">
+        <v>169</v>
+      </c>
+      <c r="D66" s="10">
+        <v>170</v>
+      </c>
+      <c r="E66" s="14">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>199511</v>
+      </c>
+      <c r="B67" s="4">
+        <v>132</v>
+      </c>
+      <c r="C67" s="8">
+        <v>239</v>
+      </c>
+      <c r="D67" s="10">
+        <v>240</v>
+      </c>
+      <c r="E67" s="14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>199512</v>
+      </c>
+      <c r="B68" s="4">
+        <v>76</v>
+      </c>
+      <c r="C68" s="8">
+        <v>138</v>
+      </c>
+      <c r="D68" s="10">
+        <v>140</v>
+      </c>
+      <c r="E68" s="14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>199601</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45</v>
+      </c>
+      <c r="C69" s="8">
+        <v>121</v>
+      </c>
+      <c r="D69" s="10">
+        <v>238</v>
+      </c>
+      <c r="E69" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>199603</v>
+      </c>
+      <c r="B70" s="4">
+        <v>6</v>
+      </c>
+      <c r="C70" s="8">
+        <v>78</v>
+      </c>
+      <c r="D70" s="10">
+        <v>79</v>
+      </c>
+      <c r="E70" s="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>199605</v>
+      </c>
+      <c r="B71" s="4">
+        <v>7</v>
+      </c>
+      <c r="C71" s="8">
+        <v>112</v>
+      </c>
+      <c r="D71" s="10">
+        <v>113</v>
+      </c>
+      <c r="E71" s="14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>199607</v>
+      </c>
+      <c r="B72" s="4">
+        <v>44</v>
+      </c>
+      <c r="C72" s="8">
+        <v>184</v>
+      </c>
+      <c r="D72" s="17">
+        <v>405</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>199608</v>
+      </c>
+      <c r="B73" s="4">
+        <v>48</v>
+      </c>
+      <c r="C73" s="8">
+        <v>128</v>
+      </c>
+      <c r="D73" s="10">
+        <v>129</v>
+      </c>
+      <c r="E73" s="14">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>199609</v>
+      </c>
+      <c r="B74" s="4">
+        <v>28</v>
+      </c>
+      <c r="C74" s="8">
+        <v>70</v>
+      </c>
+      <c r="D74" s="10">
+        <v>71</v>
+      </c>
+      <c r="E74" s="14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>199611</v>
+      </c>
+      <c r="B75" s="4">
+        <v>24</v>
+      </c>
+      <c r="C75" s="8">
+        <v>107</v>
+      </c>
+      <c r="D75" s="10">
+        <v>108</v>
+      </c>
+      <c r="E75" s="14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>199612</v>
+      </c>
+      <c r="B76" s="4">
+        <v>60</v>
+      </c>
+      <c r="C76" s="8">
+        <v>123</v>
+      </c>
+      <c r="D76" s="10">
+        <v>124</v>
+      </c>
+      <c r="E76" s="14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>199702</v>
+      </c>
+      <c r="B77" s="4">
+        <v>117</v>
+      </c>
+      <c r="C77" s="8">
+        <v>212</v>
+      </c>
+      <c r="D77" s="17">
+        <v>327</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>199703</v>
+      </c>
+      <c r="B78" s="4">
+        <v>11</v>
+      </c>
+      <c r="C78" s="8">
+        <v>74</v>
+      </c>
+      <c r="D78" s="10">
+        <v>75</v>
+      </c>
+      <c r="E78" s="14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>199705</v>
+      </c>
+      <c r="B79" s="4">
+        <v>37</v>
+      </c>
+      <c r="C79" s="8">
+        <v>88</v>
+      </c>
+      <c r="D79" s="10">
+        <v>89</v>
+      </c>
+      <c r="E79" s="14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>199707</v>
+      </c>
+      <c r="B80" s="4">
+        <v>20</v>
+      </c>
+      <c r="C80" s="8">
+        <v>81</v>
+      </c>
+      <c r="D80" s="17">
+        <v>223</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>199708</v>
+      </c>
+      <c r="B81" s="4">
+        <v>48</v>
+      </c>
+      <c r="C81" s="8">
+        <v>120</v>
+      </c>
+      <c r="D81" s="10">
+        <v>121</v>
+      </c>
+      <c r="E81" s="14">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>199709</v>
+      </c>
+      <c r="B82" s="4">
+        <v>11</v>
+      </c>
+      <c r="C82" s="8">
+        <v>97</v>
+      </c>
+      <c r="D82" s="10">
+        <v>98</v>
+      </c>
+      <c r="E82" s="14">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>199711</v>
+      </c>
+      <c r="B83" s="4">
+        <v>72</v>
+      </c>
+      <c r="C83" s="8">
+        <v>180</v>
+      </c>
+      <c r="D83" s="10">
+        <v>181</v>
+      </c>
+      <c r="E83" s="14">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>199712</v>
+      </c>
+      <c r="B84" s="4">
+        <v>28</v>
+      </c>
+      <c r="C84" s="8">
+        <v>87</v>
+      </c>
+      <c r="D84" s="10">
+        <v>88</v>
+      </c>
+      <c r="E84" s="14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>199802</v>
+      </c>
+      <c r="B85" s="4">
+        <v>60</v>
+      </c>
+      <c r="C85" s="8">
+        <v>13</v>
+      </c>
+      <c r="D85" s="17">
+        <v>233</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>199803</v>
+      </c>
+      <c r="B86" s="4">
+        <v>42</v>
+      </c>
+      <c r="C86" s="8">
+        <v>135</v>
+      </c>
+      <c r="D86" s="10">
+        <v>136</v>
+      </c>
+      <c r="E86" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>199805</v>
+      </c>
+      <c r="B87" s="4">
+        <v>50</v>
+      </c>
+      <c r="C87" s="8">
+        <v>176</v>
+      </c>
+      <c r="D87" s="10">
+        <v>180</v>
+      </c>
+      <c r="E87" s="14">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>199807</v>
+      </c>
+      <c r="B88" s="4">
+        <v>36</v>
+      </c>
+      <c r="C88" s="8">
+        <v>159</v>
+      </c>
+      <c r="D88" s="17">
+        <v>288</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>199808</v>
+      </c>
+      <c r="B89" s="4">
+        <v>58</v>
+      </c>
+      <c r="C89" s="8">
+        <v>136</v>
+      </c>
+      <c r="D89" s="10">
+        <v>137</v>
+      </c>
+      <c r="E89" s="14">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>199809</v>
+      </c>
+      <c r="B90" s="4">
+        <v>105</v>
+      </c>
+      <c r="C90" s="8">
+        <v>163</v>
+      </c>
+      <c r="D90" s="10">
+        <v>164</v>
+      </c>
+      <c r="E90" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>199811</v>
+      </c>
+      <c r="B91" s="4">
+        <v>166</v>
+      </c>
+      <c r="C91" s="8">
+        <v>236</v>
+      </c>
+      <c r="D91" s="10">
+        <v>237</v>
+      </c>
+      <c r="E91" s="14">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>199812</v>
+      </c>
+      <c r="B92" s="4">
+        <v>42</v>
+      </c>
+      <c r="C92" s="8">
+        <v>113</v>
+      </c>
+      <c r="D92" s="10">
+        <v>114</v>
+      </c>
+      <c r="E92" s="14">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>199902</v>
+      </c>
+      <c r="B93" s="4">
+        <v>78</v>
+      </c>
+      <c r="C93" s="8">
+        <v>177</v>
+      </c>
+      <c r="D93" s="17">
+        <v>261</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>199903</v>
+      </c>
+      <c r="B94" s="4">
+        <v>19</v>
+      </c>
+      <c r="C94" s="8">
+        <v>78</v>
+      </c>
+      <c r="D94" s="10">
+        <v>79</v>
+      </c>
+      <c r="E94" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>199905</v>
+      </c>
+      <c r="B95" s="4">
+        <v>48</v>
+      </c>
+      <c r="C95" s="8">
+        <v>137</v>
+      </c>
+      <c r="D95" s="10">
+        <v>138</v>
+      </c>
+      <c r="E95" s="14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>199906</v>
+      </c>
+      <c r="B96" s="4">
+        <v>36</v>
+      </c>
+      <c r="C96" s="8">
+        <v>115</v>
+      </c>
+      <c r="D96" s="10">
+        <v>160</v>
+      </c>
+      <c r="E96" s="14">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>199908</v>
+      </c>
+      <c r="B97" s="4">
+        <v>170</v>
+      </c>
+      <c r="C97" s="8">
+        <v>221</v>
+      </c>
+      <c r="D97" s="10">
+        <v>222</v>
+      </c>
+      <c r="E97" s="14">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>199910</v>
+      </c>
+      <c r="B98" s="4">
+        <v>18</v>
+      </c>
+      <c r="C98" s="8">
+        <v>75</v>
+      </c>
+      <c r="D98" s="10">
+        <v>76</v>
+      </c>
+      <c r="E98" s="14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>199911</v>
+      </c>
+      <c r="B99" s="4">
+        <v>23</v>
+      </c>
+      <c r="C99" s="8">
+        <v>84</v>
+      </c>
+      <c r="D99" s="10">
+        <v>85</v>
+      </c>
+      <c r="E99" s="14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>199912</v>
+      </c>
+      <c r="B100" s="4">
+        <v>25</v>
+      </c>
+      <c r="C100" s="8">
+        <v>87</v>
+      </c>
+      <c r="D100" s="10">
+        <v>88</v>
+      </c>
+      <c r="E100" s="14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>200002</v>
+      </c>
+      <c r="B101" s="4">
+        <v>60</v>
+      </c>
+      <c r="C101" s="8">
+        <v>165</v>
+      </c>
+      <c r="D101" s="17">
+        <v>262</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>200003</v>
+      </c>
+      <c r="B102" s="4">
+        <v>98</v>
+      </c>
+      <c r="C102" s="8">
+        <v>160</v>
+      </c>
+      <c r="D102" s="10">
+        <v>161</v>
+      </c>
+      <c r="E102" s="14">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>200005</v>
+      </c>
+      <c r="B103" s="4">
+        <v>45</v>
+      </c>
+      <c r="C103" s="8">
+        <v>149</v>
+      </c>
+      <c r="D103" s="10">
+        <v>150</v>
+      </c>
+      <c r="E103" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>200006</v>
+      </c>
+      <c r="B104" s="4">
+        <v>17</v>
+      </c>
+      <c r="C104" s="8">
+        <v>123</v>
+      </c>
+      <c r="D104" s="10">
+        <v>149</v>
+      </c>
+      <c r="E104" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>200008</v>
+      </c>
+      <c r="B105" s="4">
+        <v>53</v>
+      </c>
+      <c r="C105" s="8">
+        <v>108</v>
+      </c>
+      <c r="D105" s="10">
+        <v>109</v>
+      </c>
+      <c r="E105" s="14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>200010</v>
+      </c>
+      <c r="B106" s="4">
+        <v>72</v>
+      </c>
+      <c r="C106" s="8">
+        <v>133</v>
+      </c>
+      <c r="D106" s="10">
+        <v>134</v>
+      </c>
+      <c r="E106" s="14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>200011</v>
+      </c>
+      <c r="B107" s="4">
+        <v>35</v>
+      </c>
+      <c r="C107" s="8">
+        <v>123</v>
+      </c>
+      <c r="D107" s="10">
+        <v>124</v>
+      </c>
+      <c r="E107" s="14">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>200012</v>
+      </c>
+      <c r="B108" s="4">
+        <v>30</v>
+      </c>
+      <c r="C108" s="8">
+        <v>96</v>
+      </c>
+      <c r="D108" s="10">
+        <v>97</v>
+      </c>
+      <c r="E108" s="14">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>200101</v>
+      </c>
+      <c r="B109" s="4">
+        <v>292</v>
+      </c>
+      <c r="C109" s="8">
+        <v>395</v>
+      </c>
+      <c r="D109" s="10">
+        <v>396</v>
+      </c>
+      <c r="E109" s="14">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>200103</v>
+      </c>
+      <c r="B110" s="4">
+        <v>21</v>
+      </c>
+      <c r="C110" s="8">
+        <v>110</v>
+      </c>
+      <c r="D110" s="10">
+        <v>111</v>
+      </c>
+      <c r="E110" s="14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>200105</v>
+      </c>
+      <c r="B111" s="4">
+        <v>49</v>
+      </c>
+      <c r="C111" s="8">
+        <v>109</v>
+      </c>
+      <c r="D111" s="10">
+        <v>110</v>
+      </c>
+      <c r="E111" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>200106</v>
+      </c>
+      <c r="B112" s="4">
+        <v>135</v>
+      </c>
+      <c r="C112" s="8">
+        <v>250</v>
+      </c>
+      <c r="D112" s="10">
+        <v>251</v>
+      </c>
+      <c r="E112" s="14">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>200108</v>
+      </c>
+      <c r="B113" s="4">
+        <v>8</v>
+      </c>
+      <c r="C113" s="8">
+        <v>49</v>
+      </c>
+      <c r="D113" s="10">
+        <v>50</v>
+      </c>
+      <c r="E113" s="14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>200110</v>
+      </c>
+      <c r="B114" s="4">
+        <v>34</v>
+      </c>
+      <c r="C114" s="8">
+        <v>87</v>
+      </c>
+      <c r="D114" s="10">
+        <v>88</v>
+      </c>
+      <c r="E114" s="14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>200111</v>
+      </c>
+      <c r="B115" s="4">
+        <v>28</v>
+      </c>
+      <c r="C115" s="8">
+        <v>110</v>
+      </c>
+      <c r="D115" s="10">
+        <v>111</v>
+      </c>
+      <c r="E115" s="14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>200112</v>
+      </c>
+      <c r="B116" s="4">
+        <v>25</v>
+      </c>
+      <c r="C116" s="8">
+        <v>127</v>
+      </c>
+      <c r="D116" s="10">
+        <v>128</v>
+      </c>
+      <c r="E116" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>200201</v>
+      </c>
+      <c r="B117" s="4">
+        <v>93</v>
+      </c>
+      <c r="C117" s="8">
+        <v>202</v>
+      </c>
+      <c r="D117" s="10">
+        <v>203</v>
+      </c>
+      <c r="E117" s="14">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>200203</v>
+      </c>
+      <c r="B118" s="4">
+        <v>79</v>
+      </c>
+      <c r="C118" s="8">
+        <v>141</v>
+      </c>
+      <c r="D118" s="10">
+        <v>142</v>
+      </c>
+      <c r="E118" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>200205</v>
+      </c>
+      <c r="B119" s="4">
+        <v>26</v>
+      </c>
+      <c r="C119" s="8">
+        <v>125</v>
+      </c>
+      <c r="D119" s="10">
+        <v>126</v>
+      </c>
+      <c r="E119" s="14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>200206</v>
+      </c>
+      <c r="B120" s="4">
+        <v>139</v>
+      </c>
+      <c r="C120" s="8">
+        <v>206</v>
+      </c>
+      <c r="D120" s="10">
+        <v>207</v>
+      </c>
+      <c r="E120" s="14">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>200208</v>
+      </c>
+      <c r="B121" s="4">
+        <v>48</v>
+      </c>
+      <c r="C121" s="8">
+        <v>106</v>
+      </c>
+      <c r="D121" s="10">
+        <v>107</v>
+      </c>
+      <c r="E121" s="14">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>200209</v>
+      </c>
+      <c r="B122" s="4">
+        <v>52</v>
+      </c>
+      <c r="C122" s="8">
+        <v>131</v>
+      </c>
+      <c r="D122" s="10">
+        <v>132</v>
+      </c>
+      <c r="E122" s="14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>200211</v>
+      </c>
+      <c r="B123" s="4">
+        <v>13</v>
+      </c>
+      <c r="C123" s="8">
+        <v>105</v>
+      </c>
+      <c r="D123" s="10">
+        <v>106</v>
+      </c>
+      <c r="E123" s="14">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>200212</v>
+      </c>
+      <c r="B124" s="4">
+        <v>10</v>
+      </c>
+      <c r="C124" s="8">
+        <v>140</v>
+      </c>
+      <c r="D124" s="10">
+        <v>141</v>
+      </c>
+      <c r="E124" s="14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>200301</v>
+      </c>
+      <c r="B125" s="4">
+        <v>223</v>
+      </c>
+      <c r="C125" s="8">
+        <v>349</v>
+      </c>
+      <c r="D125" s="10">
+        <v>350</v>
+      </c>
+      <c r="E125" s="14">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>200303</v>
+      </c>
+      <c r="B126" s="4">
+        <v>31</v>
+      </c>
+      <c r="C126" s="8">
+        <v>100</v>
+      </c>
+      <c r="D126" s="10">
+        <v>101</v>
+      </c>
+      <c r="E126" s="14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>200305</v>
+      </c>
+      <c r="B127" s="4">
+        <v>28</v>
+      </c>
+      <c r="C127" s="8">
+        <v>123</v>
+      </c>
+      <c r="D127" s="10">
+        <v>124</v>
+      </c>
+      <c r="E127" s="14">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>200306</v>
+      </c>
+      <c r="B128" s="4">
+        <v>92</v>
+      </c>
+      <c r="C128" s="8">
+        <v>184</v>
+      </c>
+      <c r="D128" s="10">
+        <v>185</v>
+      </c>
+      <c r="E128" s="14">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>200308</v>
+      </c>
+      <c r="B129" s="4">
+        <v>39</v>
+      </c>
+      <c r="C129" s="8">
+        <v>104</v>
+      </c>
+      <c r="D129" s="10">
+        <v>105</v>
+      </c>
+      <c r="E129" s="14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>200309</v>
+      </c>
+      <c r="B130" s="4">
+        <v>258</v>
+      </c>
+      <c r="C130" s="8">
+        <v>341</v>
+      </c>
+      <c r="D130" s="10">
+        <v>342</v>
+      </c>
+      <c r="E130" s="14">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>200310</v>
+      </c>
+      <c r="B131" s="4">
+        <v>46</v>
+      </c>
+      <c r="C131" s="8">
+        <v>129</v>
+      </c>
+      <c r="D131" s="10">
+        <v>130</v>
+      </c>
+      <c r="E131" s="14">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>200312</v>
+      </c>
+      <c r="B132" s="4">
+        <v>44</v>
+      </c>
+      <c r="C132" s="8">
+        <v>156</v>
+      </c>
+      <c r="D132" s="10">
+        <v>157</v>
+      </c>
+      <c r="E132" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>200401</v>
+      </c>
+      <c r="B133" s="4">
+        <v>249</v>
+      </c>
+      <c r="C133" s="8">
+        <v>370</v>
+      </c>
+      <c r="D133" s="10">
+        <v>371</v>
+      </c>
+      <c r="E133" s="14">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>200403</v>
+      </c>
+      <c r="B134" s="4">
+        <v>41</v>
+      </c>
+      <c r="C134" s="8">
+        <v>121</v>
+      </c>
+      <c r="D134" s="10">
+        <v>122</v>
+      </c>
+      <c r="E134" s="14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>200405</v>
+      </c>
+      <c r="B135" s="4">
+        <v>54</v>
+      </c>
+      <c r="C135" s="8">
+        <v>101</v>
+      </c>
+      <c r="D135" s="10">
+        <v>102</v>
+      </c>
+      <c r="E135" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>200406</v>
+      </c>
+      <c r="B136" s="4">
+        <v>212</v>
+      </c>
+      <c r="C136" s="8">
+        <v>342</v>
+      </c>
+      <c r="D136" s="10">
+        <v>343</v>
+      </c>
+      <c r="E136" s="14">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>200408</v>
+      </c>
+      <c r="B137" s="4">
+        <v>28</v>
+      </c>
+      <c r="C137" s="8">
+        <v>104</v>
+      </c>
+      <c r="D137" s="10">
+        <v>105</v>
+      </c>
+      <c r="E137" s="14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>200409</v>
+      </c>
+      <c r="B138" s="4">
+        <v>56</v>
+      </c>
+      <c r="C138" s="8">
+        <v>154</v>
+      </c>
+      <c r="D138" s="10">
+        <v>155</v>
+      </c>
+      <c r="E138" s="14">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>200411</v>
+      </c>
+      <c r="B139" s="4">
+        <v>47</v>
+      </c>
+      <c r="C139" s="8">
+        <v>113</v>
+      </c>
+      <c r="D139" s="10">
+        <v>114</v>
+      </c>
+      <c r="E139" s="14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>200412</v>
+      </c>
+      <c r="B140" s="4">
+        <v>20</v>
+      </c>
+      <c r="C140" s="8">
+        <v>61</v>
+      </c>
+      <c r="D140" s="10">
+        <v>62</v>
+      </c>
+      <c r="E140" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>200502</v>
+      </c>
+      <c r="B141" s="4">
+        <v>94</v>
+      </c>
+      <c r="C141" s="8">
+        <v>171</v>
+      </c>
+      <c r="D141" s="10">
+        <v>172</v>
+      </c>
+      <c r="E141" s="14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>200503</v>
+      </c>
+      <c r="B142" s="4">
+        <v>34</v>
+      </c>
+      <c r="C142" s="8">
+        <v>135</v>
+      </c>
+      <c r="D142" s="10">
+        <v>136</v>
+      </c>
+      <c r="E142" s="14">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>200505</v>
+      </c>
+      <c r="B143" s="4">
+        <v>28</v>
+      </c>
+      <c r="C143" s="8">
+        <v>110</v>
+      </c>
+      <c r="D143" s="10">
+        <v>112</v>
+      </c>
+      <c r="E143" s="14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>200506</v>
+      </c>
+      <c r="B144" s="4">
+        <v>244</v>
+      </c>
+      <c r="C144" s="8">
+        <v>384</v>
+      </c>
+      <c r="D144" s="10">
+        <v>384</v>
+      </c>
+      <c r="E144" s="14">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>200508</v>
+      </c>
+      <c r="B145" s="4">
+        <v>55</v>
+      </c>
+      <c r="C145" s="8">
+        <v>168</v>
+      </c>
+      <c r="D145" s="10">
+        <v>169</v>
+      </c>
+      <c r="E145" s="14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>200509</v>
+      </c>
+      <c r="B146" s="4">
+        <v>17</v>
+      </c>
+      <c r="C146" s="8">
+        <v>106</v>
+      </c>
+      <c r="D146" s="10">
+        <v>107</v>
+      </c>
+      <c r="E146" s="14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>200511</v>
+      </c>
+      <c r="B147" s="4">
+        <v>70</v>
+      </c>
+      <c r="C147" s="8">
+        <v>150</v>
+      </c>
+      <c r="D147" s="10">
+        <v>151</v>
+      </c>
+      <c r="E147" s="14">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>200512</v>
+      </c>
+      <c r="B148" s="4">
+        <v>23</v>
+      </c>
+      <c r="C148" s="8">
+        <v>93</v>
+      </c>
+      <c r="D148" s="10">
+        <v>94</v>
+      </c>
+      <c r="E148" s="14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>200601</v>
+      </c>
+      <c r="B149" s="4">
+        <v>57</v>
+      </c>
+      <c r="C149" s="8">
+        <v>116</v>
+      </c>
+      <c r="D149" s="10">
+        <v>117</v>
+      </c>
+      <c r="E149" s="14">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>